--- a/画面設計/【画面設計】16_レシピ登録画面.xlsx
+++ b/画面設計/【画面設計】16_レシピ登録画面.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -71,6 +71,11 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>「01_メニュー画面」のレシピ登録より呼ばれてレシピの新規登録を行うことができる画面。
+当画面で表示された内容を「04_レシピ表示画面（HTML)」で表示する。
+当システムはレシピでの登録は可能であるが、レシピの更新機能はまだ未定。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -551,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -761,12 +766,12 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>-171450</xdr:rowOff>
+      <xdr:rowOff>-190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8848725" cy="6353175"/>
+    <xdr:ext cx="8486775" cy="6096000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -915,7 +920,7 @@
     <xdr:ext cx="3400425" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.jpg" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2378,7 +2383,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -3429,7 +3434,9 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -3537,7 +3544,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3567,13 +3574,13 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -3713,7 +3720,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -3743,10 +3750,10 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="6"/>
@@ -3943,14 +3950,14 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -3975,14 +3982,14 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -4007,30 +4014,30 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J57" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -4107,14 +4114,14 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
       <c r="G60" s="48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60" s="48"/>
       <c r="I60" s="48"/>
@@ -4139,30 +4146,30 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="49"/>
       <c r="B61" s="50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="49"/>
       <c r="G61" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I61" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J61" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K61" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
@@ -4323,30 +4330,30 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="49"/>
       <c r="B67" s="50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="49"/>
       <c r="G67" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I67" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J67" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K67" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
@@ -4423,14 +4430,14 @@
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="25"/>
       <c r="B70" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C70" s="48"/>
       <c r="D70" s="48"/>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H70" s="48"/>
       <c r="I70" s="48"/>
@@ -4455,30 +4462,30 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="49"/>
       <c r="B71" s="50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="49"/>
       <c r="G71" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I71" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J71" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K71" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -30290,11 +30297,11 @@
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B37:H39"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B37:H39"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30410,7 +30417,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="63"/>
       <c r="B4" s="63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="63"/>
@@ -30438,10 +30445,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="63"/>
@@ -52079,7 +52086,7 @@
     <row r="7">
       <c r="B7" s="69"/>
       <c r="C7" s="71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="21"/>
@@ -52093,13 +52100,13 @@
     <row r="9">
       <c r="B9" s="69"/>
       <c r="C9" s="71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="70"/>
     </row>
@@ -52111,13 +52118,13 @@
     <row r="11">
       <c r="B11" s="69"/>
       <c r="C11" s="71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="70"/>
     </row>
@@ -52129,13 +52136,13 @@
     <row r="13">
       <c r="B13" s="69"/>
       <c r="C13" s="71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="70"/>
     </row>
@@ -52147,13 +52154,13 @@
     <row r="15">
       <c r="B15" s="69"/>
       <c r="C15" s="71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="70"/>
     </row>
@@ -52165,11 +52172,11 @@
     <row r="17">
       <c r="B17" s="69"/>
       <c r="C17" s="71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="75"/>
       <c r="E17" s="71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="70"/>
     </row>
@@ -52181,13 +52188,13 @@
     <row r="19">
       <c r="B19" s="69"/>
       <c r="C19" s="71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="70"/>
     </row>
@@ -52199,11 +52206,11 @@
     <row r="21">
       <c r="B21" s="69"/>
       <c r="C21" s="71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="75"/>
       <c r="E21" s="76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="77"/>
     </row>
@@ -52215,38 +52222,38 @@
     <row r="23">
       <c r="B23" s="69"/>
       <c r="C23" s="71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="70"/>
     </row>
     <row r="24">
       <c r="B24" s="69"/>
       <c r="D24" s="78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="70"/>
     </row>
     <row r="25">
       <c r="B25" s="69"/>
       <c r="D25" s="78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="70"/>
     </row>
     <row r="26">
       <c r="B26" s="69"/>
       <c r="D26" s="78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="70"/>
     </row>
     <row r="27">
       <c r="B27" s="69"/>
       <c r="D27" s="78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="70"/>
     </row>
@@ -52256,7 +52263,7 @@
     </row>
     <row r="29">
       <c r="B29" s="79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="29"/>
     </row>
@@ -52267,10 +52274,10 @@
     <row r="31">
       <c r="B31" s="69"/>
       <c r="C31" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F31" s="70"/>
     </row>
@@ -52322,7 +52329,7 @@
     <row r="39">
       <c r="B39" s="80"/>
       <c r="C39" s="83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" s="70"/>
     </row>
@@ -52333,7 +52340,7 @@
     </row>
     <row r="41">
       <c r="B41" s="84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F41" s="29"/>
     </row>
@@ -52386,7 +52393,7 @@
     <row r="49">
       <c r="B49" s="80"/>
       <c r="C49" s="83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" s="70"/>
     </row>
@@ -52396,7 +52403,7 @@
     </row>
     <row r="51">
       <c r="B51" s="85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="29"/>
     </row>
@@ -52449,7 +52456,7 @@
     <row r="59">
       <c r="B59" s="80"/>
       <c r="C59" s="83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F59" s="70"/>
     </row>
@@ -52460,7 +52467,7 @@
     <row r="61">
       <c r="B61" s="69"/>
       <c r="D61" s="86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F61" s="70"/>
     </row>
